--- a/варианты 2024/колчев/22.xlsx
+++ b/варианты 2024/колчев/22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2024\колчев\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2676CD-795B-4FE9-B4AE-861C570AA85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,23 +371,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:AR14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.7109375" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
     <col min="6" max="39" width="3.140625" customWidth="1"/>
     <col min="40" max="54" width="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -630,17 +627,17 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="BC3" t="b">
-        <f t="shared" ref="BC3:BC14" si="0">SUM(F3:BB3)=B3</f>
+        <f>SUM(I3:BB3)=B3</f>
         <v>1</v>
       </c>
     </row>
@@ -661,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="BC4" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BC3:BC14" si="0">SUM(F4:BB4)=B4</f>
         <v>1</v>
       </c>
     </row>
@@ -678,22 +675,22 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
       <c r="BC5" t="b">
@@ -1073,35 +1070,35 @@
       </c>
       <c r="F15">
         <f>COUNT(F2:F14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:AJ15" si="1">COUNT(G2:G14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <f>COUNT(K2:K14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>COUNT(M2:M14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f>COUNT(N2:N14)</f>
@@ -1109,162 +1106,162 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P15">
+      <c r="AH15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q15">
+      <c r="AI15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R15">
+      <c r="AJ15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AK15">
-        <f>COUNT(AK2:AK14)</f>
+        <f t="shared" ref="AK15:AT15" si="2">COUNT(AK2:AK14)</f>
         <v>1</v>
       </c>
       <c r="AL15">
-        <f>COUNT(AL2:AL14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AM15">
-        <f>COUNT(AM2:AM14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AN15">
-        <f>COUNT(AN2:AN14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AO15">
-        <f>COUNT(AO2:AO14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AP15">
-        <f>COUNT(AP2:AP14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AQ15">
-        <f>COUNT(AQ2:AQ14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AR15">
-        <f>COUNT(AR2:AR14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AS15">
-        <f>COUNT(AS2:AS14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AT15">
-        <f>COUNT(AT2:AT14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AU15">
-        <f t="shared" ref="AP15:BB15" si="2">COUNT(AU2:AU14)</f>
+        <f t="shared" ref="AU15:BB15" si="3">COUNT(AU2:AU14)</f>
         <v>0</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1281,8 +1278,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:AR14 F2:AO10">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="O11:AR14 F2:AO2 F6:AO10 F5:H5 O5:AO5 F4:AO4 T3:AO3 I3:P3">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1293,8 +1290,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:BB10 F11:J14 O11:BB14">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="F2:BB2 F11:J14 O11:BB14 F6:BB10 F5:H5 O5:BB5 F4:BB4 T3:BB3 I3:P3">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
